--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2854.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2854.xlsx
@@ -354,7 +354,7 @@
         <v>2.19946674403613</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.362850266013117</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2854.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2854.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.177300154083126</v>
+        <v>1.337343811988831</v>
       </c>
       <c r="B1">
-        <v>2.19946674403613</v>
+        <v>1.547056913375854</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.000873565673828</v>
       </c>
       <c r="D1">
-        <v>2.362850266013117</v>
+        <v>3.208665370941162</v>
       </c>
       <c r="E1">
-        <v>1.224113273262403</v>
+        <v>1.095940947532654</v>
       </c>
     </row>
   </sheetData>
